--- a/mf-intelligence/data/processed/quant/quant_Dynamic_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Dynamic_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>HDFC Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.361610000000001</v>
+        <v>9.956272999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>6.876986</v>
+        <v>6.706992</v>
       </c>
       <c r="F2" t="n">
-        <v>6.047439</v>
+        <v>6.598957</v>
       </c>
       <c r="G2" t="n">
-        <v>2.484624000000001</v>
+        <v>3.249281</v>
       </c>
       <c r="H2" t="n">
-        <v>3.314171000000001</v>
+        <v>3.357315999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.389315</v>
+        <v>9.790407999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>4.946473</v>
+        <v>9.361610000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.876986</v>
       </c>
       <c r="G3" t="n">
-        <v>3.442842</v>
+        <v>0.4287979999999987</v>
       </c>
       <c r="H3" t="n">
-        <v>8.389315</v>
+        <v>2.913422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.106636999999999</v>
+        <v>9.502613</v>
       </c>
       <c r="E4" t="n">
-        <v>7.849532</v>
+        <v>2.93099</v>
       </c>
       <c r="F4" t="n">
-        <v>7.921288</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2571049999999993</v>
+        <v>6.571623000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1853489999999995</v>
+        <v>9.502613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Co Ltd</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.706992</v>
+        <v>8.638477999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>6.598957</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.132316</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1080349999999992</v>
+        <v>8.638477999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5746759999999993</v>
+        <v>8.638477999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE781S01027</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ventive Hospitality Limited</t>
+          <t>Coal India Ltd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.68026</v>
+        <v>7.5848</v>
       </c>
       <c r="E6" t="n">
-        <v>5.233346</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.153892</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4469139999999996</v>
+        <v>7.5848</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5263679999999997</v>
+        <v>7.5848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.564083</v>
+        <v>6.567132</v>
       </c>
       <c r="E7" t="n">
-        <v>5.569359</v>
+        <v>3.016362</v>
       </c>
       <c r="F7" t="n">
-        <v>5.018149</v>
+        <v>3.011186</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00527600000000028</v>
+        <v>3.55077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5459339999999999</v>
+        <v>3.555946</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.418953</v>
+        <v>6.310856</v>
       </c>
       <c r="E8" t="n">
-        <v>4.404663</v>
+        <v>5.564083</v>
       </c>
       <c r="F8" t="n">
-        <v>4.649052</v>
+        <v>5.569359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01428999999999991</v>
+        <v>0.7467730000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2300990000000001</v>
+        <v>0.7414969999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE781S01027</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Ventive Hospitality Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.298993</v>
+        <v>6.171473</v>
       </c>
       <c r="E9" t="n">
-        <v>4.030076</v>
+        <v>5.68026</v>
       </c>
       <c r="F9" t="n">
-        <v>3.833128</v>
+        <v>5.233346</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2689170000000001</v>
+        <v>0.4912130000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4658650000000004</v>
+        <v>0.9381269999999997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.016362</v>
+        <v>4.906354</v>
       </c>
       <c r="E10" t="n">
-        <v>3.011186</v>
+        <v>4.298993</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.030076</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005176000000000069</v>
+        <v>0.607361</v>
       </c>
       <c r="H10" t="n">
-        <v>3.016362</v>
+        <v>0.8762780000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.93099</v>
+        <v>4.122146</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4.418953</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.404663</v>
       </c>
       <c r="G11" t="n">
-        <v>2.93099</v>
+        <v>-0.2968070000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>2.93099</v>
+        <v>-0.2825170000000004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE0BYP01024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>OSWAL PUMPS LIMITED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.922047</v>
+        <v>1.849712</v>
       </c>
       <c r="E12" t="n">
-        <v>2.969165</v>
+        <v>2.216061</v>
       </c>
       <c r="F12" t="n">
-        <v>3.011564</v>
+        <v>2.237151</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04711799999999977</v>
+        <v>-0.3663489999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.08951699999999985</v>
+        <v>-0.3874389999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE0Z8Z23013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Capital Infra Trust InvIT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.567573</v>
+        <v>0.08158700000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>2.614716</v>
+        <v>0.07441300000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>2.745639</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04714300000000016</v>
+        <v>0.007174</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1780660000000003</v>
+        <v>0.08158700000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE0BYP01024</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OSWAL PUMPS LIMITED</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.216061</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.237151</v>
+        <v>2.922047</v>
       </c>
       <c r="F14" t="n">
-        <v>2.859003</v>
+        <v>2.969165</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02109000000000005</v>
+        <v>-2.922047</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6429420000000001</v>
+        <v>-2.969165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.781996</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.300623</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3.219585</v>
+        <v>6.408252</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.518627</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.437589</v>
+        <v>-6.408252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE0Z8Z23013</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Capital Infra Trust InvIT</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.07441300000000001</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.567573</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.614716</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07441300000000001</v>
+        <v>-2.567573</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07441300000000001</v>
+        <v>-2.614716</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.389315</v>
       </c>
       <c r="F17" t="n">
-        <v>2.644174</v>
+        <v>4.946473</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.389315</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.644174</v>
+        <v>-4.946473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6.408252</v>
+        <v>8.106636999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>9.512938999999999</v>
+        <v>7.849532</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.408252</v>
+        <v>-8.106636999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.512938999999999</v>
+        <v>-7.849532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.781996</v>
       </c>
       <c r="F19" t="n">
-        <v>10.556393</v>
+        <v>3.300623</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.781996</v>
       </c>
       <c r="H19" t="n">
-        <v>-10.556393</v>
+        <v>-3.300623</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Dynamic_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Dynamic_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.956272999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>6.706992</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.598957</v>
-      </c>
       <c r="G2" t="n">
+        <v>6.132316</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.249281</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.357315999999999</v>
+      <c r="I2" t="n">
+        <v>3.823956999999999</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.790407999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.361610000000001</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.876986</v>
-      </c>
       <c r="G3" t="n">
+        <v>6.047439</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4287979999999987</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.913422</v>
+      <c r="I3" t="n">
+        <v>3.742969</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +570,24 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>9.502613</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2.93099</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.571623000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>9.502613</v>
       </c>
     </row>
@@ -587,21 +607,26 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.638477999999999</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.638477999999999</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>8.638477999999999</v>
       </c>
+      <c r="I5" t="n">
+        <v>8.638477999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -619,21 +644,26 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.5848</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5848</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>7.5848</v>
       </c>
+      <c r="I6" t="n">
+        <v>7.5848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,20 +681,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6.567132</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.016362</v>
       </c>
-      <c r="F7" t="n">
-        <v>3.011186</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.55077</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.555946</v>
+      <c r="I7" t="n">
+        <v>6.567132</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>6.310856</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.564083</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.569359</v>
-      </c>
       <c r="G8" t="n">
+        <v>5.018149</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.7467730000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.7414969999999999</v>
+      <c r="I8" t="n">
+        <v>1.292707</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>6.171473</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.68026</v>
       </c>
-      <c r="F9" t="n">
-        <v>5.233346</v>
-      </c>
       <c r="G9" t="n">
+        <v>5.153892</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4912130000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.9381269999999997</v>
+      <c r="I9" t="n">
+        <v>1.017581</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>4.906354</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.298993</v>
       </c>
-      <c r="F10" t="n">
-        <v>4.030076</v>
-      </c>
       <c r="G10" t="n">
+        <v>3.833128</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.607361</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.8762780000000001</v>
+      <c r="I10" t="n">
+        <v>1.073226</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.122146</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.418953</v>
       </c>
-      <c r="F11" t="n">
-        <v>4.404663</v>
-      </c>
       <c r="G11" t="n">
+        <v>4.649052</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.2968070000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>-0.2825170000000004</v>
+      <c r="I11" t="n">
+        <v>-0.5269060000000003</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>1.849712</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.216061</v>
       </c>
-      <c r="F12" t="n">
-        <v>2.237151</v>
-      </c>
       <c r="G12" t="n">
+        <v>2.859003</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.3663489999999998</v>
       </c>
-      <c r="H12" t="n">
-        <v>-0.3874389999999999</v>
+      <c r="I12" t="n">
+        <v>-1.009291</v>
       </c>
     </row>
     <row r="13">
@@ -843,31 +903,36 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>0.08158700000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.07441300000000001</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.007174</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.08158700000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,31 +940,36 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>2.922047</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.969165</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.922047</v>
+        <v>9.512938999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.969165</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-9.512938999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6.408252</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.644174</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.408252</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.644174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,20 +1014,25 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>2.567573</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.614716</v>
+        <v>1.781996</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.567573</v>
+        <v>3.219585</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.614716</v>
+        <v>-1.781996</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.219585</v>
       </c>
     </row>
     <row r="17">
@@ -971,31 +1051,36 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>8.389315</v>
       </c>
-      <c r="F17" t="n">
-        <v>4.946473</v>
-      </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>-8.389315</v>
       </c>
-      <c r="H17" t="n">
-        <v>-4.946473</v>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>8.106636999999999</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>7.849532</v>
+        <v>2.567573</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.106636999999999</v>
+        <v>2.745639</v>
       </c>
       <c r="H18" t="n">
-        <v>-7.849532</v>
+        <v>-2.567573</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.745639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,20 +1125,99 @@
           <t>quant Dynamic Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>1.781996</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.300623</v>
+        <v>8.106636999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.781996</v>
+        <v>7.921288</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.300623</v>
+        <v>-8.106636999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-7.921288</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>INE062A01020</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.556393</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-10.556393</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INE271C01023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DLF Limited</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.922047</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.011564</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.922047</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3.011564</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Dynamic_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Dynamic_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.956272999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>6.706992</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6.132316</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>3.249281</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.823956999999999</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.790407999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9.361610000000001</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>6.047439</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.4287979999999987</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3.742969</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.502613</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>2.93099</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>6.571623000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9.502613</v>
       </c>
     </row>
@@ -604,29 +624,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.638477999999999</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8.638477999999999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>8.638477999999999</v>
       </c>
+      <c r="J5" t="n">
+        <v>8.638477999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -641,29 +666,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Consumable Fuels</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.5848</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7.5848</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>7.5848</v>
       </c>
+      <c r="J6" t="n">
+        <v>7.5848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.567132</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3.016362</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.55077</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>6.567132</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.310856</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.564083</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5.018149</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.7467730000000001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1.292707</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>6.171473</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.68026</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5.153892</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.4912130000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1.017581</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.906354</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4.298993</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3.833128</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.607361</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1.073226</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.122146</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.418953</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>4.649052</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>-0.2968070000000003</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-0.5269060000000003</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.849712</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.216061</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.859003</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-0.3663489999999998</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-1.009291</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.08158700000000001</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.07441300000000001</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.007174</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.08158700000000001</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>9.512938999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>-9.512938999999999</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.644174</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>-2.644174</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.781996</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>3.219585</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-1.781996</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>-3.219585</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>8.389315</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>-8.389315</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.567573</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2.745639</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-2.567573</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-2.745639</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>8.106636999999999</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>7.921288</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-8.106636999999999</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-7.921288</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>10.556393</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>-10.556393</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Dynamic Asset Allocation Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Dynamic Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.922047</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>3.011564</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-2.922047</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-3.011564</v>
       </c>
     </row>
